--- a/ML/WWScan/Risk_categories_overlap_time_226_counties_100k.xlsx
+++ b/ML/WWScan/Risk_categories_overlap_time_226_counties_100k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/ML/WWScan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B980FD-6A72-F242-82D2-B0D734204185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532123B2-1067-4D42-9D00-BDD4E675BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,12 +430,14 @@
   <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
